--- a/biology/Zoologie/Hydrophis_ornatus/Hydrophis_ornatus.xlsx
+++ b/biology/Zoologie/Hydrophis_ornatus/Hydrophis_ornatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis ornatus ou Hydrophide orné est une espèce de serpents marins de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis ornatus ou Hydrophide orné est une espèce de serpents marins de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce marine se rencontre dans l'océan Indien et l'océan Pacifique occidental dans les eaux[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce marine se rencontre dans l'océan Indien et l'océan Pacifique occidental dans les eaux :
 des Émirats arabes unis, d'Oman, de l'Iran ;
 du Pakistan, de l'Inde, du Sri Lanka ;
 du Japon, de la République populaire de Chine, des Philippines, du Viêt Nam, de la Thaïlande, de la Malaisie, de l'Indonésie ;
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis ornatus[2] mesure jusqu'à 115 cm. Cette espèce a la face dorsale grisâtre ou olive clair voire presque blanche avec de larges bandes sombres ou des taches en forme de losange séparées par de petits intervalles. Sa face ventrale est jaunâtre ou blanchâtre[1]. 
-C'est un serpent marin venimeux[1] considéré comme peu agressif mais dont la morsure est mortelle.
-Il se déplace en eau libre dans les récifs coralliens et les zones sableuses alentour[2]. Il peut plonger jusqu'à 50 m de profondeur pendant près de 2 heures. Il chasse aussi bien le jour que la nuit et se nourrit de poissons[2], en particulier de gobies, d'apogons, de petits rougets et de  poissons-chats[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis ornatus mesure jusqu'à 115 cm. Cette espèce a la face dorsale grisâtre ou olive clair voire presque blanche avec de larges bandes sombres ou des taches en forme de losange séparées par de petits intervalles. Sa face ventrale est jaunâtre ou blanchâtre. 
+C'est un serpent marin venimeux considéré comme peu agressif mais dont la morsure est mortelle.
+Il se déplace en eau libre dans les récifs coralliens et les zones sableuses alentour. Il peut plonger jusqu'à 50 m de profondeur pendant près de 2 heures. Il chasse aussi bien le jour que la nuit et se nourrit de poissons, en particulier de gobies, d'apogons, de petits rougets et de  poissons-chats.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 décembre 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 décembre 2013) :
 Hydrophis ornatus godeffroyi Peters, 1873
 Hydrophis ornatus maresinensis Mittleman, 1947
 Hydrophis ornatus ocellatus Gray, 1849
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1842 : Monographic Synopsis of the Water Snakes, or the Family of Hydridae. The Zoological Miscellany, vol. 2, p. 59-68 (texte intégral).
 Gray, 1849 : Catalogue of the specimens of snakes in the collection of the British Museum, London, p. 1-125 (texte intégral).
